--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="536">
   <si>
     <t>Term</t>
   </si>
@@ -279,6 +279,18 @@
     <t>tech:IntendedUse</t>
   </si>
   <si>
+    <t>hasDocumentation</t>
+  </si>
+  <si>
+    <t>has documentation</t>
+  </si>
+  <si>
+    <t>Indicates documentation associated with technology</t>
+  </si>
+  <si>
+    <t>tech:Documentation</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -789,6 +801,9 @@
     <t>Technology provided as a cloud service that is private</t>
   </si>
   <si>
+    <t>Tek Raj Chhetri</t>
+  </si>
+  <si>
     <t>PublicCloudService</t>
   </si>
   <si>
@@ -1183,9 +1198,6 @@
   </si>
   <si>
     <t>Documentation that provides instructions for using, maintaining, developing, or performing other activities regarding the technology</t>
-  </si>
-  <si>
-    <t>tech:Documentation</t>
   </si>
   <si>
     <t>Guide</t>
@@ -2849,10 +2861,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2867,13 +2879,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="22" t="s">
@@ -2913,16 +2925,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>60</v>
@@ -2961,16 +2973,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>60</v>
@@ -3009,16 +3021,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>60</v>
@@ -3057,16 +3069,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>60</v>
@@ -3105,16 +3117,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>60</v>
@@ -3153,13 +3165,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="22" t="s">
@@ -3297,10 +3309,10 @@
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="39"/>
@@ -3319,13 +3331,13 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="6" t="s">
@@ -3373,16 +3385,16 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -3419,16 +3431,16 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -3469,16 +3481,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -3515,16 +3527,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>474</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>470</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -3561,16 +3573,16 @@
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -3611,16 +3623,16 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -3657,16 +3669,16 @@
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -3707,16 +3719,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -3753,16 +3765,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -3799,16 +3811,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -3845,16 +3857,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -3891,16 +3903,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -3937,16 +3949,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -3983,13 +3995,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -4030,16 +4042,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -4076,16 +4088,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -4122,16 +4134,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -4168,16 +4180,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -4214,16 +4226,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -4260,16 +4272,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -4306,16 +4318,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -4453,27 +4465,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6">
@@ -5302,15 +5314,59 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8">
+        <v>45472.0</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="11">
       <c r="C11" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6"/>
     </row>
@@ -5483,26 +5539,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -5512,7 +5568,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -5523,16 +5579,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -5542,7 +5598,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -5553,16 +5609,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -5572,7 +5628,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -5583,16 +5639,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -5602,7 +5658,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -5613,16 +5669,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -5632,7 +5688,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -5643,16 +5699,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -5662,7 +5718,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -5673,16 +5729,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -5692,7 +5748,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -5703,16 +5759,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -5722,7 +5778,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -5733,16 +5789,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -5752,7 +5808,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -5763,16 +5819,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -5782,7 +5838,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -5793,16 +5849,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5811,7 +5867,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -5822,16 +5878,16 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5841,12 +5897,12 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -5869,18 +5925,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5889,7 +5945,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -5900,13 +5956,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5916,7 +5972,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -5927,13 +5983,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5943,7 +5999,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -5954,13 +6010,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5970,7 +6026,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -5981,13 +6037,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -5997,7 +6053,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -6008,13 +6064,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -6024,7 +6080,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -6035,10 +6091,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="22"/>
@@ -6047,16 +6103,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -6065,7 +6121,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -6076,16 +6132,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -6094,7 +6150,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -6105,16 +6161,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -6123,7 +6179,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -6134,16 +6190,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -6152,7 +6208,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -6163,10 +6219,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -6197,16 +6253,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -6215,10 +6271,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -6226,16 +6282,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -6244,10 +6300,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -6255,16 +6311,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -6273,10 +6329,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -6284,16 +6340,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -6302,10 +6358,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -6313,16 +6369,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -6331,10 +6387,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -6342,16 +6398,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -6360,10 +6416,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -6371,37 +6427,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -6412,28 +6468,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -6444,21 +6500,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6467,7 +6523,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -6478,16 +6534,16 @@
     </row>
     <row r="44">
       <c r="A44" s="26" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>16</v>
@@ -6502,7 +6558,7 @@
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N44" s="21" t="s">
         <v>39</v>
@@ -6528,16 +6584,16 @@
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>16</v>
@@ -6552,7 +6608,7 @@
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N45" s="21" t="s">
         <v>39</v>
@@ -6578,16 +6634,16 @@
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>16</v>
@@ -6602,7 +6658,7 @@
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N46" s="21" t="s">
         <v>39</v>
@@ -6876,10 +6932,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6888,19 +6944,19 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -6942,13 +6998,13 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
@@ -6990,13 +7046,13 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
@@ -7038,13 +7094,13 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -7086,13 +7142,13 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
@@ -7102,7 +7158,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
@@ -7136,13 +7192,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
@@ -7184,13 +7240,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
@@ -7232,13 +7288,13 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
@@ -7284,16 +7340,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>68</v>
@@ -7310,7 +7366,9 @@
       <c r="M13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -7330,16 +7388,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>68</v>
@@ -7356,7 +7414,9 @@
       <c r="M14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -7376,16 +7436,16 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>68</v>
@@ -7402,7 +7462,9 @@
       <c r="M15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -7422,16 +7484,16 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>68</v>
@@ -7448,7 +7510,9 @@
       <c r="M16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -7468,16 +7532,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>68</v>
@@ -7494,7 +7558,9 @@
       <c r="M17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -7514,16 +7580,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>68</v>
@@ -7540,7 +7606,9 @@
       <c r="M18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -7560,16 +7628,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>68</v>
@@ -7586,7 +7654,9 @@
       <c r="M19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -7606,16 +7676,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>68</v>
@@ -7632,7 +7702,9 @@
       <c r="M20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -7652,16 +7724,16 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>68</v>
@@ -7678,7 +7750,9 @@
       <c r="M21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -7698,16 +7772,16 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>68</v>
@@ -7724,7 +7798,9 @@
       <c r="M22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -7862,10 +7938,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7880,24 +7956,24 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K4" s="8">
         <v>45421.0</v>
@@ -7931,24 +8007,24 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K5" s="8">
         <v>45421.0</v>
@@ -7978,26 +8054,26 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K6" s="8">
         <v>45421.0</v>
@@ -8031,24 +8107,24 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K7" s="8">
         <v>45421.0</v>
@@ -8078,26 +8154,26 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K8" s="8">
         <v>45421.0</v>
@@ -8131,24 +8207,24 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K9" s="8">
         <v>45421.0</v>
@@ -8182,24 +8258,24 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="32" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -8229,24 +8305,24 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
@@ -8276,24 +8352,24 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
@@ -8323,24 +8399,24 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
@@ -8370,24 +8446,24 @@
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
@@ -8417,24 +8493,24 @@
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
@@ -8464,24 +8540,24 @@
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
@@ -8511,24 +8587,24 @@
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
@@ -8558,26 +8634,26 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K18" s="8">
         <v>45421.0</v>
@@ -8607,26 +8683,26 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K19" s="8">
         <v>45421.0</v>
@@ -8656,26 +8732,26 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K20" s="8">
         <v>45421.0</v>
@@ -8705,26 +8781,26 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K21" s="8">
         <v>45421.0</v>
@@ -8754,17 +8830,17 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -8799,17 +8875,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -8844,23 +8920,23 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -9005,22 +9081,22 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -9053,22 +9129,22 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
@@ -9101,22 +9177,22 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -9149,22 +9225,22 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -9197,22 +9273,22 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -9245,22 +9321,22 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -9293,22 +9369,22 @@
     </row>
     <row r="8">
       <c r="A8" s="32" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9341,22 +9417,22 @@
     </row>
     <row r="9">
       <c r="A9" s="32" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -9389,22 +9465,22 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9437,22 +9513,22 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -9485,22 +9561,22 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9533,22 +9609,22 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -9581,22 +9657,22 @@
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -9629,22 +9705,22 @@
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -9677,22 +9753,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -9725,22 +9801,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -9773,22 +9849,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -9821,22 +9897,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -9984,10 +10060,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10002,17 +10078,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10049,17 +10125,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10094,17 +10170,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10141,17 +10217,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10186,17 +10262,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10231,19 +10307,19 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10278,19 +10354,19 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -10635,10 +10711,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10647,13 +10723,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10664,7 +10740,7 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -10673,16 +10749,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10720,16 +10796,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -10769,17 +10845,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10814,17 +10890,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10859,16 +10935,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -10906,17 +10982,17 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -10951,17 +11027,17 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -10996,16 +11072,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -11160,22 +11236,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -11210,22 +11286,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -11256,22 +11332,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -11305,7 +11381,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B9" s="6"/>
     </row>
